--- a/data/income_statement/1digit/size/I_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/I_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>I-Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>I-Accommodation and food service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5294854.69983</v>
+        <v>5648319.06345</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6238355.15573</v>
+        <v>6666505.3993</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7641225.711270001</v>
+        <v>8285125.97678</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8713536.61524</v>
+        <v>9438616.521850001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10679012.85267</v>
+        <v>11328724.64846</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12159275.27653</v>
+        <v>13046839.63612</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>13816538.56763</v>
+        <v>15115608.00935</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15150058.2303</v>
+        <v>16226122.36357</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>18549958.9533</v>
+        <v>20006471.85672</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23941538.35741</v>
+        <v>24718476.70896</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>29000269.38261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>30567693.5207</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26266534.543</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5088227.39208</v>
+        <v>5401421.26889</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6017158.627730001</v>
+        <v>6401432.686609999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7415261.17012</v>
+        <v>8015443.84686</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8406157.256660001</v>
+        <v>9070322.11877</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10270504.66644</v>
+        <v>10867409.1692</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11786936.96445</v>
+        <v>12596011.808</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13357924.14231</v>
+        <v>14510243.53879</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14630956.83339</v>
+        <v>15587930.30942</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>17894740.5944</v>
+        <v>19197389.74935</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>23069193.03214</v>
+        <v>23795289.85123</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>27789879.28824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>29218830.10416</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>24942328.917</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>94388.09647999999</v>
+        <v>104605.96918</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>92592.60038</v>
+        <v>104224.16747</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>79000.33670999999</v>
+        <v>80449.73591</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>105882.94956</v>
+        <v>114528.37296</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>134474.1832</v>
+        <v>144991.08767</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>93606.17842999999</v>
+        <v>115471.47059</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>138786.41911</v>
+        <v>163445.12856</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>93147.31345999999</v>
+        <v>119869.26144</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>156632.17447</v>
+        <v>177661.33143</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>160214.77155</v>
+        <v>175287.30116</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>289816.84703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>326523.08283</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>420161.156</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>112239.21127</v>
+        <v>142291.82538</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>128603.92762</v>
+        <v>160848.54522</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>146964.20444</v>
+        <v>189232.39401</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>201496.40902</v>
+        <v>253766.03012</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>274034.00303</v>
+        <v>316324.39159</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>278732.13365</v>
+        <v>335356.35753</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>319828.00621</v>
+        <v>441919.3419999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>425954.08345</v>
+        <v>518322.7927099999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>498586.18443</v>
+        <v>631420.77594</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>712130.5537200001</v>
+        <v>747899.55657</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>920573.2473400001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1022340.33371</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>904044.47</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>21074.53932</v>
+        <v>23671.66445</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>25237.71957</v>
+        <v>25769.73369</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>25535.21721</v>
+        <v>29649.31404</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>25663.81911</v>
+        <v>32550.40045</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>41220.39643</v>
+        <v>50636.6567</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>43369.81391</v>
+        <v>48946.02295000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>40033.03192</v>
+        <v>49569.62927</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>52045.20690999999</v>
+        <v>63646.20981</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>47963.75497000001</v>
+        <v>62443.39118000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>85484.2893</v>
+        <v>83268.87840999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>102985.31338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>120699.02143</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>384765.07</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>15033.28748</v>
+        <v>16817.88189</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>17650.93298</v>
+        <v>17869.87106</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>19436.93735</v>
+        <v>20329.61701</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>21115.40845</v>
+        <v>23511.61212</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>30903.91813</v>
+        <v>36547.82245</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>32887.77209999999</v>
+        <v>36599.8219</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>31533.71635</v>
+        <v>37721.37056</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>39931.16347</v>
+        <v>47724.19254</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>40387.92649000001</v>
+        <v>49136.50865</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>69452.51071999999</v>
+        <v>66736.51014</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>79113.37805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>93430.50238999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>346573.335</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5286.73162</v>
+        <v>5959.05168</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4822.82664</v>
+        <v>5094.95719</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3475.8079</v>
+        <v>6712.04574</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2622.62768</v>
+        <v>6825.35967</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>5173.854270000001</v>
+        <v>8858.105299999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8090.60469</v>
+        <v>9798.9894</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>5373.93788</v>
+        <v>7078.51062</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3254.04627</v>
+        <v>5067.075199999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4813.38978</v>
+        <v>7339.17051</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>9536.758619999999</v>
+        <v>9905.267379999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>10123.33644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12834.44103</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>25170.433</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>754.52022</v>
+        <v>894.73088</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2763.95995</v>
+        <v>2804.90544</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2622.47196</v>
+        <v>2607.65129</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1925.78298</v>
+        <v>2213.42866</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5142.62403</v>
+        <v>5230.728950000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2391.43712</v>
+        <v>2547.21165</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3125.37769</v>
+        <v>4769.748090000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8859.997170000001</v>
+        <v>10854.94207</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2762.4387</v>
+        <v>5967.712020000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6495.01996</v>
+        <v>6627.100890000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>13748.59889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14434.07801</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>13021.302</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5273780.16051</v>
+        <v>5624647.398999999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6213117.436160001</v>
+        <v>6640735.665609999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7615690.494060001</v>
+        <v>8255476.66274</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8687872.79613</v>
+        <v>9406066.121400001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10637792.45624</v>
+        <v>11278087.99176</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>12115905.46262</v>
+        <v>12997893.61317</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>13776505.53571</v>
+        <v>15066038.38008</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15098013.02339</v>
+        <v>16162476.15376</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>18501995.19833</v>
+        <v>19944028.46554</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>23856054.06811</v>
+        <v>24635207.83055</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>28897284.06922999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>30446994.49927</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25881769.473</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4027137.22606</v>
+        <v>4235278.96993</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4794997.22219</v>
+        <v>5059205.34902</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5868489.497700001</v>
+        <v>6258943.569680001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6737749.06498</v>
+        <v>7220966.91253</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8260482.716440001</v>
+        <v>8653934.903729999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9485066.1041</v>
+        <v>10032012.77313</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10897249.35511</v>
+        <v>11769128.2759</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>12248400.23343</v>
+        <v>13082323.87044</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>14869671.29273</v>
+        <v>15830618.65651</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18620023.55237</v>
+        <v>18952537.09402</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22832115.69959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23785285.1983</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>21253171.777</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>842435.6218399999</v>
+        <v>845913.8805900001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1017464.72738</v>
+        <v>1024867.18758</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1221012.28302</v>
+        <v>1245590.20016</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1396912.87373</v>
+        <v>1437779.63972</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1691707.37555</v>
+        <v>1726565.62628</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1957567.53703</v>
+        <v>2001615.51812</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2277845.68345</v>
+        <v>2358441.22915</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2638099.4587</v>
+        <v>2717670.50474</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3107801.36169</v>
+        <v>3186119.88439</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3894810.20475</v>
+        <v>3943776.40827</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4613869.630510001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4811995.771520001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4489280.356</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>835950.67151</v>
+        <v>845016.34068</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>946123.4887400001</v>
+        <v>947782.09731</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1296556.46234</v>
+        <v>1318548.12064</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1448285.28222</v>
+        <v>1469014.89704</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1647954.10936</v>
+        <v>1680035.0485</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1836343.27114</v>
+        <v>1879998.37804</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2092017.49291</v>
+        <v>2149275.31009</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2513400.5178</v>
+        <v>2542082.59773</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3473558.596330001</v>
+        <v>3541420.78858</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3564367.76741</v>
+        <v>3570338.34856</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4633297.08812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4727868.45397</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5423577.895</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2341297.79342</v>
+        <v>2534622.48646</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2824533.49779</v>
+        <v>3078556.94569</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3335558.46107</v>
+        <v>3677423.03626</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3871598.70318</v>
+        <v>4288803.16979</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4900436.78134</v>
+        <v>5223055.28088</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5654740.91505</v>
+        <v>6101329.503020001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6472448.553799999</v>
+        <v>7179824.739229999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7047141.77991</v>
+        <v>7759266.21096</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8219938.814299999</v>
+        <v>9026388.812959999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>11074980.87471</v>
+        <v>11359715.47822</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13450913.50004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14109326.25945</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11181800.643</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7453.139289999999</v>
+        <v>9726.262199999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6875.508279999999</v>
+        <v>7999.118439999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>15362.29127</v>
+        <v>17382.21262</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>20952.20585</v>
+        <v>25369.20598</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>20384.45019</v>
+        <v>24278.94807</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>36414.38088</v>
+        <v>49069.37395</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>54937.62495</v>
+        <v>81586.99742999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>49758.47702000001</v>
+        <v>63304.55701</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>68372.52041000001</v>
+        <v>76689.17058000002</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>85864.7055</v>
+        <v>78706.85897</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>134035.48092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>136094.71336</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>158512.883</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1246642.93445</v>
+        <v>1389368.42907</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1418120.21397</v>
+        <v>1581530.31659</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1747200.99636</v>
+        <v>1996533.09306</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1950123.73115</v>
+        <v>2185099.20887</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2377309.7398</v>
+        <v>2624153.08803</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2630839.358519999</v>
+        <v>2965880.84004</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2879256.1806</v>
+        <v>3296910.10418</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2849612.78996</v>
+        <v>3080152.283319999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3632323.9056</v>
+        <v>4113409.80903</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5236030.51574</v>
+        <v>5682670.73653</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6065168.36964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6661709.30097</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4628597.696</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1079280.73523</v>
+        <v>1190819.21263</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1237762.92077</v>
+        <v>1368261.15106</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1522618.20641</v>
+        <v>1677031.75906</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1802509.97934</v>
+        <v>1972013.49067</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2222600.55763</v>
+        <v>2406739.8866</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2523708.66223</v>
+        <v>2829208.35504</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2909903.95595</v>
+        <v>3225574.80542</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3269986.42276</v>
+        <v>3579790.93854</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3645637.96849</v>
+        <v>3998854.90211</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4577745.39334</v>
+        <v>4776951.4511</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5377156.933769999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5681503.24439</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5122935.081</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2218.10321</v>
+        <v>2731.79212</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1920.48607</v>
+        <v>1946.41638</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1410.61915</v>
+        <v>1400.21224</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1532.39592</v>
+        <v>1488.42278</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1903.05769</v>
+        <v>1897.44712</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2802.89709</v>
+        <v>2808.985369999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2607.71586</v>
+        <v>2694.98758</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5423.5469</v>
+        <v>4326.69147</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7509.50908</v>
+        <v>7467.80036</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>9768.221190000002</v>
+        <v>7008.17823</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>9151.812480000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9469.967849999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>8147.223</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>176469.35314</v>
+        <v>185311.72577</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>201306.46668</v>
+        <v>219020.33695</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>244099.61365</v>
+        <v>261455.8727</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>294071.9121599999</v>
+        <v>313822.34514</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>384664.30397</v>
+        <v>400867.72585</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>436197.57156</v>
+        <v>455297.23237</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>503141.04479</v>
+        <v>535632.32437</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>569230.3825399999</v>
+        <v>592272.88657</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>664522.4243600001</v>
+        <v>689605.19378</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>849834.1801900001</v>
+        <v>855326.53353</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>993994.7918300001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1024729.08588</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>913399.189</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>900593.27888</v>
+        <v>1002775.69474</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1034535.96802</v>
+        <v>1147294.39773</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1277107.97361</v>
+        <v>1414175.67412</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1506905.67126</v>
+        <v>1656702.72275</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1836033.19597</v>
+        <v>2003974.71363</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2084708.19358</v>
+        <v>2371102.1373</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2404155.1953</v>
+        <v>2687247.49347</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2695332.49332</v>
+        <v>2983191.3605</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2973606.03505</v>
+        <v>3301781.90797</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3718142.99196</v>
+        <v>3914616.73934</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4374010.32946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4647304.19066</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4201388.669</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>167362.19922</v>
+        <v>198549.21644</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>180357.2932</v>
+        <v>213269.16553</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>224582.78995</v>
+        <v>319501.334</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>147613.75181</v>
+        <v>213085.7182</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>154709.18217</v>
+        <v>217413.20143</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>107130.69629</v>
+        <v>136672.485</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-30647.77535000001</v>
+        <v>71335.29876000005</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-420373.6328</v>
+        <v>-499638.6552199999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-13314.06289</v>
+        <v>114554.90692</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>658285.1224000001</v>
+        <v>905719.2854299999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>688011.4358699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>980206.0565800002</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-494337.385</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>83964.18060000001</v>
+        <v>193515.86122</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>98908.58298000002</v>
+        <v>170945.86955</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>107012.75672</v>
+        <v>394961.00784</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>110139.26721</v>
+        <v>418304.4185</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>175895.60143</v>
+        <v>520485.09055</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>199938.0968</v>
+        <v>852438.39269</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>243081.3503</v>
+        <v>1190463.0385</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>234435.01381</v>
+        <v>1079747.8157</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>288638.6257</v>
+        <v>690178.8974299998</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>976002.38148</v>
+        <v>1743158.42716</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>653291.95021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>937845.76677</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1682266.057</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2025.95801</v>
+        <v>4138.48826</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2481.57428</v>
+        <v>5697.927499999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3957.85534</v>
+        <v>34199.74163</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2621.45092</v>
+        <v>30384.85144</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3336.37699</v>
+        <v>65023.75635</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6911.19082</v>
+        <v>31912.63926</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4109.733</v>
+        <v>38935.07466000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6418.53079</v>
+        <v>33297.18108</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5709.46056</v>
+        <v>13218.60649</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>15057.55947</v>
+        <v>7856.89996</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>16713.91389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>23858.36893</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3305.135</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1219.13462</v>
+        <v>1164.43692</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>802.4574500000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>460.14962</v>
+        <v>379.2243800000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1367.17893</v>
+        <v>6250.38302</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>3159.1947</v>
+        <v>9343.138080000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2973.404849999999</v>
+        <v>7250.673049999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>9728.98128</v>
+        <v>1411.83707</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3129.35771</v>
+        <v>7530.299420000001</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>348.29738</v>
+        <v>4143.51262</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>695.2276000000001</v>
+        <v>7688.98785</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1389.08123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>16084.3747</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>41073.339</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>18036.26806</v>
+        <v>22905.23940999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>16379.89615</v>
+        <v>18736.06716</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>15017.69868</v>
+        <v>160799.53582</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>20089.71303</v>
+        <v>193156.37258</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>25350.17827</v>
+        <v>171509.37202</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>31807.86537</v>
+        <v>265749.74993</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>40201.7366</v>
+        <v>336138.6615</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>43543.63366000001</v>
+        <v>386786.49436</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>51368.27993</v>
+        <v>102564.91062</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>118057.95697</v>
+        <v>191721.1496</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>125385.44157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>222631.4776700001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>213298.516</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1132.19968</v>
+        <v>1494.22575</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1124.81053</v>
+        <v>1608.85914</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>951.8609799999999</v>
+        <v>3590.774190000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1106.2745</v>
+        <v>2057.63282</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2195.43794</v>
+        <v>2239.31849</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2005.41896</v>
+        <v>1612.98172</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1464.30084</v>
+        <v>2345.94621</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1660.33776</v>
+        <v>2845.62219</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2094.62843</v>
+        <v>2072.92641</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1798.34083</v>
+        <v>14028.49057</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1258.0725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5310.84798</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7731.697</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>366.94683</v>
+        <v>33801.36281000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1031.90057</v>
+        <v>1125.48446</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1825.69183</v>
+        <v>8908.017949999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>580.88198</v>
+        <v>8320.864509999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>647.6198200000001</v>
+        <v>6981.48168</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>846.2770400000001</v>
+        <v>1269.4313</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1122.61447</v>
+        <v>2750.46103</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5693.754480000001</v>
+        <v>3611.9479</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2185.63098</v>
+        <v>3920.50536</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2902.51184</v>
+        <v>1613.98674</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5026.52347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5590.55583</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5862.996</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>947.0939599999999</v>
+        <v>1566.57305</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1567.03076</v>
+        <v>1732.089</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2361.00208</v>
+        <v>5689.71133</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2350.85952</v>
+        <v>2100.07145</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1837.59252</v>
+        <v>1627.49581</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1898.22159</v>
+        <v>225856.36392</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2284.04517</v>
+        <v>144477.63607</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2462.09203</v>
+        <v>96913.25121999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4214.2278</v>
+        <v>22940.4791</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6383.101680000001</v>
+        <v>22991.74483</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>15218.58023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>17729.54334</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>41870.07</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>20885.67031</v>
+        <v>73491.49252000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>23561.55983</v>
+        <v>82123.333</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>30265.22475</v>
+        <v>107584.18056</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>20869.21063</v>
+        <v>74417.02045</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>44959.21780000001</v>
+        <v>137871.35611</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>53586.00937</v>
+        <v>174106.45989</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>93013.04702</v>
+        <v>486141.63496</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>65642.61470999999</v>
+        <v>388787.2578099999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>95146.92165</v>
+        <v>386488.4538799999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>623422.35905</v>
+        <v>1333683.12582</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>219323.95779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>400439.0512</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1084010.221</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>411.27249</v>
+        <v>1024.43043</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>349.23544</v>
+        <v>287.53054</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>219.36513</v>
+        <v>145.79575</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>365.23016</v>
+        <v>340.09035</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>201.05757</v>
+        <v>174.75282</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>449.54414</v>
+        <v>1753.17401</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>221.06684</v>
+        <v>613.23631</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>274.02189</v>
+        <v>253.01592</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>153.49946</v>
+        <v>52.03533</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>144.42645</v>
+        <v>17.50874</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>48.59199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>7.210109999999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>161.963</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>280.32873</v>
+        <v>278.9146500000001</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>840.9306100000001</v>
+        <v>862.0685</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>320.40753</v>
+        <v>395.84849</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>357.99164</v>
+        <v>504.95062</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>940.2945599999999</v>
+        <v>1002.53217</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>1172.00598</v>
+        <v>959.3167900000001</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>943.03784</v>
+        <v>776.5905600000001</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>990.5385200000001</v>
+        <v>1002.56715</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>655.62883</v>
+        <v>837.1147900000001</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1664.13429</v>
+        <v>1221.96898</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>310.0995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>332.42871</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>897.026</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>38659.30791</v>
+        <v>53650.69742</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>50769.18736</v>
+        <v>57970.0528</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>51633.50078</v>
+        <v>73268.17774</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>60430.4759</v>
+        <v>100772.18126</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>93268.63125999999</v>
+        <v>124711.88702</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>98288.15868000002</v>
+        <v>141967.60282</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>89992.78723999999</v>
+        <v>176871.96013</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>104620.13226</v>
+        <v>158720.17865</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>126762.05068</v>
+        <v>153940.35283</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>205876.7633</v>
+        <v>162334.56407</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>268617.68804</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>245861.9083</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>284055.094</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>46777.69709</v>
+        <v>137931.09792</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>50574.05852999999</v>
+        <v>96872.56506000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>68922.67792</v>
+        <v>408476.06039</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>57801.68265</v>
+        <v>251323.35381</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>118775.35973</v>
+        <v>430770.89244</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>104060.87371</v>
+        <v>448780.81193</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>151642.0216</v>
+        <v>880376.08469</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>148423.92336</v>
+        <v>1080733.30457</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>200992.77733</v>
+        <v>675692.47381</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1071940.9546</v>
+        <v>2162878.94823</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>522260.6318799999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>964002.05112</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1750032.273</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6585.789720000001</v>
+        <v>7289.29163</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8486.223360000002</v>
+        <v>9495.306830000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>11248.91282</v>
+        <v>13110.9112</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>16288.74352</v>
+        <v>19032.73987</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>19287.31108</v>
+        <v>22678.56553</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>25223.09051</v>
+        <v>27921.58678</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>25613.64643</v>
+        <v>31841.06327</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>25319.1775</v>
+        <v>28700.07966</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>28471.08587000001</v>
+        <v>32711.72975</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>48511.27566</v>
+        <v>51369.58892000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>56667.41492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>61945.40495</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>53805.871</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5904.96904</v>
+        <v>19808.77682</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9169.81172</v>
+        <v>10895.67068</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>6223.26241</v>
+        <v>6595.5538</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>10323.60844</v>
+        <v>6895.260449999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6241.95939</v>
+        <v>8447.75157</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12726.78075</v>
+        <v>20072.4791</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8934.04384</v>
+        <v>18247.06183</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11000.52575</v>
+        <v>39726.63485999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13570.1711</v>
+        <v>15891.49956</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>32981.18646</v>
+        <v>13858.68775</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>25024.84217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>72830.88013999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>20441.066</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>246.07086</v>
+        <v>13412.51983</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>273.43478</v>
+        <v>237.44459</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>156.78974</v>
+        <v>3672.76705</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>547.9779400000001</v>
+        <v>4536.48617</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>418.6001</v>
+        <v>711.6784699999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>392.28361</v>
+        <v>523.94205</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>706.3886100000001</v>
+        <v>1961.79655</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>463.3308</v>
+        <v>998.2068400000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2978.49787</v>
+        <v>3093.69106</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>230.79144</v>
+        <v>6752.33743</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2199.27431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>920.88234</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3438.558</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>21463.36007</v>
+        <v>71444.31672999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>20688.90083</v>
+        <v>64594.95294</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>37692.25572000001</v>
+        <v>221414.88246</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>17288.2166</v>
+        <v>62576.82599999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>60816.36721</v>
+        <v>237814.57791</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>45585.15117</v>
+        <v>201491.8881100001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>89233.88278</v>
+        <v>601409.51313</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>86407.39035000002</v>
+        <v>733998.5799700001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>124905.60886</v>
+        <v>551791.38044</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>946788.8953099999</v>
+        <v>2056041.02861</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>353758.9272100001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>735355.69941</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1533773.252</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>386.84328</v>
+        <v>901.1131599999999</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>283.33797</v>
+        <v>282.2455</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>256.37563</v>
+        <v>256.06593</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>564.1159299999999</v>
+        <v>551.60819</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>292.04118</v>
+        <v>414.43113</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>670.2593599999999</v>
+        <v>1084.47082</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>355.62438</v>
+        <v>968.2309099999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1725.27806</v>
+        <v>3457.04682</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>33.22508</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>11.56047</v>
+        <v>81.66579</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>141.14288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>10.42749</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2155.236</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>1423.40574</v>
+        <v>4.67627</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>1343.96886</v>
+        <v>16.43612</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>1338.61521</v>
+        <v>7.591530000000001</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>55.31540999999999</v>
+        <v>59.91047999999999</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>88.66179000000001</v>
+        <v>94.9564</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>195.02337</v>
+        <v>194.18547</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>223.15141</v>
+        <v>313.14627</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>171.54576</v>
+        <v>170.6311</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>186.2615</v>
+        <v>149.21511</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>203.43012</v>
+        <v>0.21721</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>998.0395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>70.65684999999999</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1266.565</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>10767.25838</v>
+        <v>25070.40348</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>10328.38101</v>
+        <v>11350.5084</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>12006.46639</v>
+        <v>163418.28842</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>12733.70481</v>
+        <v>157670.52265</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>31630.41897999999</v>
+        <v>160608.93143</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>19268.28494</v>
+        <v>197492.2596</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>26575.28415</v>
+        <v>225635.27273</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>23336.67514</v>
+        <v>273682.12532</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>30847.92705</v>
+        <v>72021.73281</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>43213.81513999999</v>
+        <v>34775.42251999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>83470.99089</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>92868.09994</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>135151.725</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>102094.22788</v>
+        <v>157278.99377</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>91819.33409999999</v>
+        <v>147111.09637</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>112118.00163</v>
+        <v>204175.10472</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>142419.86886</v>
+        <v>229684.69331</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>192828.25005</v>
+        <v>329411.93258</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>224641.36308</v>
+        <v>372166.50794</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>285158.75014</v>
+        <v>529569.04331</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>319369.32398</v>
+        <v>660977.49466</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>383355.1212</v>
+        <v>699058.33663</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>846440.2884700001</v>
+        <v>1133365.2293</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>773702.1945</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1031995.03936</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1349987.209</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>88626.95966000001</v>
+        <v>134888.66422</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>84364.58809</v>
+        <v>130532.87474</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>101963.6569</v>
+        <v>165159.5581</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>132849.56936</v>
+        <v>197685.2495</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>175633.67327</v>
+        <v>260515.60142</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>207256.39129</v>
+        <v>317567.26142</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>259454.7656</v>
+        <v>435720.69419</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>298136.27545</v>
+        <v>553119.33392</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>356921.56048</v>
+        <v>577329.23463</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>749637.52273</v>
+        <v>801576.1849199998</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>717589.6804300001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>862680.81047</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>916810.1459999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>13467.26822</v>
+        <v>22390.32955</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7454.746010000001</v>
+        <v>16578.22163</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>10154.34473</v>
+        <v>39015.54661999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9570.299499999999</v>
+        <v>31999.44381</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>17194.57678</v>
+        <v>68896.33116000002</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17384.97179</v>
+        <v>54599.24652</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>25703.98454</v>
+        <v>93848.34912</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>21233.04853</v>
+        <v>107858.16074</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>26433.56072</v>
+        <v>121729.102</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>96802.76574</v>
+        <v>331789.04438</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>56112.51407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>169314.22889</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>433177.063</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>102454.45485</v>
+        <v>96854.98596999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>136872.48355</v>
+        <v>140231.37365</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>150554.86712</v>
+        <v>101811.17673</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>57531.46750999999</v>
+        <v>150382.08958</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>19001.17381999999</v>
+        <v>-22284.53304000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-21633.4437</v>
+        <v>168163.55782</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-224367.19679</v>
+        <v>-148146.79074</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-653731.8663299999</v>
+        <v>-1161601.63875</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-309023.33572</v>
+        <v>-570017.00609</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-284093.73919</v>
+        <v>-647366.4649400001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>45340.55969999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-77945.26713000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1912090.81</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>57418.07286000001</v>
+        <v>64998.51744</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>52027.58112</v>
+        <v>72944.31504999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>69464.24231</v>
+        <v>117302.86811</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>75190.57167</v>
+        <v>86688.63982999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>101705.38763</v>
+        <v>146088.84429</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>137369.57563</v>
+        <v>174780.71145</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>144845.26633</v>
+        <v>311545.80421</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>185772.19014</v>
+        <v>285142.93926</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>238069.548</v>
+        <v>286954.17245</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>384976.66013</v>
+        <v>360742.03644</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>427817.88492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>643078.7672999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>445167.176</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7161.75417</v>
+        <v>9900.542669999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>484.08596</v>
+        <v>654.23118</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1187.20259</v>
+        <v>2036.78256</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>966.871</v>
+        <v>2664.83379</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1521.21207</v>
+        <v>1512.94349</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1803.35287</v>
+        <v>4709.413949999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1847.08108</v>
+        <v>5335.396959999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1375.94861</v>
+        <v>2205.792</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4257.76039</v>
+        <v>2209.2303</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3369.4605</v>
+        <v>1442.12766</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4461.20143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4272.477879999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>30738.143</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>50256.31869</v>
+        <v>55097.97477</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>51543.49516</v>
+        <v>72290.08387</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>68277.03972</v>
+        <v>115266.08555</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>74223.70067000001</v>
+        <v>84023.80604</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>100184.17556</v>
+        <v>144575.9008</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>135566.22276</v>
+        <v>170071.2975</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>142998.18525</v>
+        <v>306210.4072499999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>184396.24153</v>
+        <v>282937.1472600001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>233811.78761</v>
+        <v>284744.94215</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>381607.19963</v>
+        <v>359299.90878</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>423356.68349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>638806.2894199999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>414429.033</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>56011.97614000001</v>
+        <v>87361.24271999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>50707.98403999999</v>
+        <v>62985.64429</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>421970.75903</v>
+        <v>512071.01286</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>78360.67829</v>
+        <v>91845.75885</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>98631.91697000001</v>
+        <v>112386.19982</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>290792.64564</v>
+        <v>317187.25517</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>142900.19616</v>
+        <v>170718.83787</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>428768.6870499999</v>
+        <v>479904.58742</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>191571.34825</v>
+        <v>1105549.39229</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>436316.5021400001</v>
+        <v>424664.70765</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>312877.4580699999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>450002.8137</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>369281.927</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>977.5554100000001</v>
+        <v>5368.7015</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1635.01811</v>
+        <v>4895.447230000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1982.60851</v>
+        <v>13468.85443</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1590.53071</v>
+        <v>3245.64235</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3153.68364</v>
+        <v>4073.38393</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4908.33268</v>
+        <v>6779.3206</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8846.462960000001</v>
+        <v>8942.309859999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6569.76004</v>
+        <v>8575.776530000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8608.685599999999</v>
+        <v>9074.387969999998</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>10609.96594</v>
+        <v>10787.79152</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>10352.04133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>9911.24827</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>35385.254</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6253.215439999999</v>
+        <v>8994.381079999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4662.44004</v>
+        <v>4276.76282</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5191.671379999999</v>
+        <v>6182.82726</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6044.90313</v>
+        <v>8068.51009</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>16290.07671</v>
+        <v>19064.84284</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8712.53177</v>
+        <v>13128.95294</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>12444.48538</v>
+        <v>11548.69526</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>10067.03064</v>
+        <v>9759.219959999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>12506.63286</v>
+        <v>13169.57248</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>13569.11451</v>
+        <v>13250.39595</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>48591.45641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>170502.72454</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>14967.85</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>48781.20529</v>
+        <v>72998.16013999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>44410.52589</v>
+        <v>53813.43424</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>414796.4791400001</v>
+        <v>492419.33117</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>70725.24444999998</v>
+        <v>80531.60640999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>79188.15662000001</v>
+        <v>89247.97305</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>277171.78119</v>
+        <v>297278.98163</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>121609.24782</v>
+        <v>150227.83275</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>412131.89637</v>
+        <v>461569.59093</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>170456.02979</v>
+        <v>1083305.43184</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>412137.4216899999</v>
+        <v>400626.52018</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>253933.96033</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>269588.84089</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>318928.823</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>103860.55157</v>
+        <v>74492.26069000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>138192.08063</v>
+        <v>150190.04441</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-201951.6496</v>
+        <v>-292956.96802</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>54361.36089</v>
+        <v>145224.97056</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>22074.64447999999</v>
+        <v>11418.11142999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-175056.51371</v>
+        <v>25757.01409999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-222422.12662</v>
+        <v>-7319.824400000006</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-896728.36324</v>
+        <v>-1356363.28691</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-262525.13597</v>
+        <v>-1388612.22593</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-335433.5812</v>
+        <v>-711289.1361500002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>160280.98655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>115130.68647</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1836205.561</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>49301.08652</v>
+        <v>53495.21898</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>57045.92166</v>
+        <v>63155.38269999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>72626.23694999999</v>
+        <v>83905.63749000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>66220.24181000001</v>
+        <v>79027.38897000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>86149.73851</v>
+        <v>96310.77378999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>93605.81445000002</v>
+        <v>110572.53332</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>99347.94686</v>
+        <v>122557.35939</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>86577.81544000001</v>
+        <v>98733.77175999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>107766.58791</v>
+        <v>127620.79093</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>210735.70792</v>
+        <v>215601.22927</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>250498.23642</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>280555.29389</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>207535.482</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>54559.46505000001</v>
+        <v>20997.04171</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>81146.15897000002</v>
+        <v>87034.66171</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-274577.88655</v>
+        <v>-376862.60551</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-11858.88091999999</v>
+        <v>66197.58159000002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-64075.09402999999</v>
+        <v>-84892.66235999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-268662.32816</v>
+        <v>-84815.51922000005</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-321770.07348</v>
+        <v>-129877.18379</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-983306.17868</v>
+        <v>-1455097.05867</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-370291.72388</v>
+        <v>-1516233.01686</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-546169.28912</v>
+        <v>-926890.36542</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-90217.24987</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-165424.60742</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-2043741.043</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>5463</v>
+        <v>5127</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5991</v>
+        <v>5569</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6635</v>
+        <v>6280</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7325</v>
+        <v>6876</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>8298</v>
+        <v>7508</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9153</v>
+        <v>8268</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9903</v>
+        <v>8978</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>10574</v>
+        <v>9167</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>11310</v>
+        <v>9711</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>10245</v>
+        <v>9512</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>9838</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>9488</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>